--- a/SailingPerformance/DaneDoOptymalizacjiŁodzi.xlsx
+++ b/SailingPerformance/DaneDoOptymalizacjiŁodzi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Anna_st\Programowanie\SailingPerfomanceS\SailingPerformance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -328,11 +328,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="468370376"/>
-        <c:axId val="468373512"/>
+        <c:axId val="247073536"/>
+        <c:axId val="247068832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="468370376"/>
+        <c:axId val="247073536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,12 +389,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468373512"/>
+        <c:crossAx val="247068832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="468373512"/>
+        <c:axId val="247068832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -451,7 +451,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468370376"/>
+        <c:crossAx val="247073536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1354,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,16 +1841,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H38">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
